--- a/silver/excel/int_revenue_metrics.xlsx
+++ b/silver/excel/int_revenue_metrics.xlsx
@@ -488,121 +488,121 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FL1288</t>
+          <t>FL8222</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>app</t>
+          <t>website</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>premium_economy</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>5678.45</v>
+        <v>1684.31</v>
       </c>
       <c r="F2" t="n">
-        <v>481.61</v>
+        <v>412.16</v>
       </c>
       <c r="G2" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="H2" t="n">
-        <v>6660.06</v>
+        <v>2846.47</v>
       </c>
       <c r="I2" t="n">
-        <v>740.01</v>
+        <v>316.27</v>
       </c>
       <c r="J2" t="n">
-        <v>333</v>
+        <v>142.32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FL6596</t>
+          <t>FL1013</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>website</t>
+          <t>travel_agent</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>economy</t>
+          <t>premium_economy</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
-        <v>21268.57</v>
+        <v>7398.05</v>
       </c>
       <c r="F3" t="n">
-        <v>1501.88</v>
+        <v>784.88</v>
       </c>
       <c r="G3" t="n">
-        <v>2100</v>
+        <v>1100</v>
       </c>
       <c r="H3" t="n">
-        <v>24870.45</v>
+        <v>9282.93</v>
       </c>
       <c r="I3" t="n">
-        <v>802.27</v>
+        <v>714.0700000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>1243.52</v>
+        <v>464.15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FL8734</t>
+          <t>FL8121</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>website</t>
+          <t>app</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>premium_economy</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>9580.17</v>
+        <v>1077.11</v>
       </c>
       <c r="F4" t="n">
-        <v>720.6</v>
+        <v>420.55</v>
       </c>
       <c r="G4" t="n">
-        <v>1450</v>
+        <v>700</v>
       </c>
       <c r="H4" t="n">
-        <v>11750.77</v>
+        <v>2197.66</v>
       </c>
       <c r="I4" t="n">
-        <v>839.34</v>
+        <v>313.95</v>
       </c>
       <c r="J4" t="n">
-        <v>587.54</v>
+        <v>109.88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FL9323</t>
+          <t>FL1541</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -616,145 +616,145 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>23621.07</v>
+        <v>6876.5</v>
       </c>
       <c r="F5" t="n">
-        <v>1532.14</v>
+        <v>399.17</v>
       </c>
       <c r="G5" t="n">
-        <v>2300</v>
+        <v>350</v>
       </c>
       <c r="H5" t="n">
-        <v>27453.21</v>
+        <v>7625.67</v>
       </c>
       <c r="I5" t="n">
-        <v>857.91</v>
+        <v>1270.95</v>
       </c>
       <c r="J5" t="n">
-        <v>1372.66</v>
+        <v>381.28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FL8734</t>
+          <t>FL8464</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>app</t>
+          <t>travel_agent</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>economy</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
-        <v>6429.5</v>
+        <v>5370.77</v>
       </c>
       <c r="F6" t="n">
-        <v>461.52</v>
+        <v>1100.34</v>
       </c>
       <c r="G6" t="n">
-        <v>800</v>
+        <v>2250</v>
       </c>
       <c r="H6" t="n">
-        <v>7691.02</v>
+        <v>8721.110000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>699.1799999999999</v>
+        <v>335.43</v>
       </c>
       <c r="J6" t="n">
-        <v>384.55</v>
+        <v>436.06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FL6596</t>
+          <t>FL7466</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>travel_agent</t>
+          <t>website</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>premium_economy</t>
+          <t>economy</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E7" t="n">
-        <v>16769.91</v>
+        <v>6301.85</v>
       </c>
       <c r="F7" t="n">
-        <v>1368.08</v>
+        <v>1072.56</v>
       </c>
       <c r="G7" t="n">
-        <v>1800</v>
+        <v>2350</v>
       </c>
       <c r="H7" t="n">
-        <v>19937.99</v>
+        <v>9724.41</v>
       </c>
       <c r="I7" t="n">
-        <v>738.4400000000001</v>
+        <v>313.69</v>
       </c>
       <c r="J7" t="n">
-        <v>996.9</v>
+        <v>486.22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FL6596</t>
+          <t>FL2900</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>travel_agent</t>
+          <t>website</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>premium_economy</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>23955.87</v>
+        <v>1379.34</v>
       </c>
       <c r="F8" t="n">
-        <v>1637.09</v>
+        <v>346.88</v>
       </c>
       <c r="G8" t="n">
-        <v>2850</v>
+        <v>350</v>
       </c>
       <c r="H8" t="n">
-        <v>28442.96</v>
+        <v>2076.22</v>
       </c>
       <c r="I8" t="n">
-        <v>861.91</v>
+        <v>259.53</v>
       </c>
       <c r="J8" t="n">
-        <v>1422.15</v>
+        <v>103.81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FL2825</t>
+          <t>FL1740</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -764,40 +764,40 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>premium_economy</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>11138.64</v>
+        <v>1215.49</v>
       </c>
       <c r="F9" t="n">
-        <v>684.3</v>
+        <v>396.16</v>
       </c>
       <c r="G9" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H9" t="n">
-        <v>12522.94</v>
+        <v>2211.65</v>
       </c>
       <c r="I9" t="n">
-        <v>782.6799999999999</v>
+        <v>368.61</v>
       </c>
       <c r="J9" t="n">
-        <v>626.15</v>
+        <v>110.58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FL7208</t>
+          <t>FL2948</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>app</t>
+          <t>website</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -806,183 +806,183 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>12768.43</v>
+        <v>1414.76</v>
       </c>
       <c r="F10" t="n">
-        <v>921.79</v>
+        <v>267.26</v>
       </c>
       <c r="G10" t="n">
-        <v>1800</v>
+        <v>150</v>
       </c>
       <c r="H10" t="n">
-        <v>15490.22</v>
+        <v>1832.02</v>
       </c>
       <c r="I10" t="n">
-        <v>774.51</v>
+        <v>366.4</v>
       </c>
       <c r="J10" t="n">
-        <v>774.51</v>
+        <v>91.59999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FL4773</t>
+          <t>FL5986</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>website</t>
+          <t>app</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>premium_economy</t>
+          <t>business</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>16977.13</v>
+        <v>1158.83</v>
       </c>
       <c r="F11" t="n">
-        <v>1427.55</v>
+        <v>147.64</v>
       </c>
       <c r="G11" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="H11" t="n">
-        <v>20604.68</v>
+        <v>1806.47</v>
       </c>
       <c r="I11" t="n">
-        <v>763.14</v>
+        <v>361.29</v>
       </c>
       <c r="J11" t="n">
-        <v>1030.23</v>
+        <v>90.31999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FL8734</t>
+          <t>FL3066</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>website</t>
+          <t>travel_agent</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>economy</t>
+          <t>business</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>15044.11</v>
+        <v>1263.64</v>
       </c>
       <c r="F12" t="n">
-        <v>1002.1</v>
+        <v>184.66</v>
       </c>
       <c r="G12" t="n">
-        <v>1550</v>
+        <v>400</v>
       </c>
       <c r="H12" t="n">
-        <v>17596.21</v>
+        <v>1848.3</v>
       </c>
       <c r="I12" t="n">
-        <v>879.8099999999999</v>
+        <v>369.66</v>
       </c>
       <c r="J12" t="n">
-        <v>879.8099999999999</v>
+        <v>92.42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>FL9323</t>
+          <t>FL2625</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>travel_agent</t>
+          <t>website</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>premium_economy</t>
+          <t>economy</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E13" t="n">
-        <v>17694.87</v>
+        <v>3499.14</v>
       </c>
       <c r="F13" t="n">
-        <v>1280.74</v>
+        <v>1302.44</v>
       </c>
       <c r="G13" t="n">
-        <v>1950</v>
+        <v>2050</v>
       </c>
       <c r="H13" t="n">
-        <v>20925.61</v>
+        <v>6851.58</v>
       </c>
       <c r="I13" t="n">
-        <v>871.9</v>
+        <v>244.7</v>
       </c>
       <c r="J13" t="n">
-        <v>1046.28</v>
+        <v>342.58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FL9323</t>
+          <t>FL4736</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>travel_agent</t>
+          <t>app</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>economy</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E14" t="n">
-        <v>25070.08</v>
+        <v>5610.04</v>
       </c>
       <c r="F14" t="n">
-        <v>1835.68</v>
+        <v>2143.88</v>
       </c>
       <c r="G14" t="n">
-        <v>3450</v>
+        <v>3550</v>
       </c>
       <c r="H14" t="n">
-        <v>30355.76</v>
+        <v>11303.92</v>
       </c>
       <c r="I14" t="n">
-        <v>843.22</v>
+        <v>251.2</v>
       </c>
       <c r="J14" t="n">
-        <v>1517.79</v>
+        <v>565.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>FL6596</t>
+          <t>FL9612</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -992,73 +992,73 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>premium_economy</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>29456.94</v>
+        <v>7493.26</v>
       </c>
       <c r="F15" t="n">
-        <v>1882.52</v>
+        <v>856.84</v>
       </c>
       <c r="G15" t="n">
-        <v>2350</v>
+        <v>1250</v>
       </c>
       <c r="H15" t="n">
-        <v>33689.46</v>
+        <v>9600.1</v>
       </c>
       <c r="I15" t="n">
-        <v>935.8200000000001</v>
+        <v>685.72</v>
       </c>
       <c r="J15" t="n">
-        <v>1684.47</v>
+        <v>480.01</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FL3561</t>
+          <t>FL6575</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>travel_agent</t>
+          <t>website</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>economy</t>
+          <t>premium_economy</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>11663.47</v>
+        <v>1206.49</v>
       </c>
       <c r="F16" t="n">
-        <v>816.5599999999999</v>
+        <v>234.59</v>
       </c>
       <c r="G16" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="H16" t="n">
-        <v>13480.03</v>
+        <v>1891.08</v>
       </c>
       <c r="I16" t="n">
-        <v>709.48</v>
+        <v>315.18</v>
       </c>
       <c r="J16" t="n">
-        <v>674</v>
+        <v>94.55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FL9519</t>
+          <t>FL3756</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1068,78 +1068,78 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>economy</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E17" t="n">
-        <v>12093.66</v>
+        <v>4701.21</v>
       </c>
       <c r="F17" t="n">
-        <v>915.03</v>
+        <v>2036.3</v>
       </c>
       <c r="G17" t="n">
-        <v>850</v>
+        <v>2550</v>
       </c>
       <c r="H17" t="n">
-        <v>13858.69</v>
+        <v>9287.51</v>
       </c>
       <c r="I17" t="n">
-        <v>923.91</v>
+        <v>244.41</v>
       </c>
       <c r="J17" t="n">
-        <v>692.9299999999999</v>
+        <v>464.38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>FL1288</t>
+          <t>FL6970</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>app</t>
+          <t>travel_agent</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>premium_economy</t>
+          <t>economy</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="E18" t="n">
-        <v>4014.71</v>
+        <v>35667.53</v>
       </c>
       <c r="F18" t="n">
-        <v>352.96</v>
+        <v>2434.26</v>
       </c>
       <c r="G18" t="n">
-        <v>450</v>
+        <v>2300</v>
       </c>
       <c r="H18" t="n">
-        <v>4817.67</v>
+        <v>40401.79</v>
       </c>
       <c r="I18" t="n">
-        <v>802.95</v>
+        <v>1035.94</v>
       </c>
       <c r="J18" t="n">
-        <v>240.88</v>
+        <v>2020.09</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>FL2825</t>
+          <t>FL5544</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>travel_agent</t>
+          <t>website</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1148,107 +1148,107 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E19" t="n">
-        <v>10398.48</v>
+        <v>8202.77</v>
       </c>
       <c r="F19" t="n">
-        <v>838.39</v>
+        <v>1732.45</v>
       </c>
       <c r="G19" t="n">
-        <v>1200</v>
+        <v>2600</v>
       </c>
       <c r="H19" t="n">
-        <v>12436.87</v>
+        <v>12535.22</v>
       </c>
       <c r="I19" t="n">
-        <v>829.12</v>
+        <v>379.86</v>
       </c>
       <c r="J19" t="n">
-        <v>621.84</v>
+        <v>626.76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>FL4773</t>
+          <t>FL1573</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>travel_agent</t>
+          <t>website</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>premium_economy</t>
+          <t>business</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>18629.36</v>
+        <v>1707.25</v>
       </c>
       <c r="F20" t="n">
-        <v>1267.63</v>
+        <v>177.01</v>
       </c>
       <c r="G20" t="n">
-        <v>2650</v>
+        <v>400</v>
       </c>
       <c r="H20" t="n">
-        <v>22546.99</v>
+        <v>2284.26</v>
       </c>
       <c r="I20" t="n">
-        <v>751.5700000000001</v>
+        <v>456.85</v>
       </c>
       <c r="J20" t="n">
-        <v>1127.35</v>
+        <v>114.21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>FL6596</t>
+          <t>FL1524</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>app</t>
+          <t>travel_agent</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>premium_economy</t>
+          <t>economy</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>22</v>
       </c>
       <c r="E21" t="n">
-        <v>12973.57</v>
+        <v>4540.28</v>
       </c>
       <c r="F21" t="n">
-        <v>976.4</v>
+        <v>1111.92</v>
       </c>
       <c r="G21" t="n">
-        <v>1750</v>
+        <v>1300</v>
       </c>
       <c r="H21" t="n">
-        <v>15699.97</v>
+        <v>6952.2</v>
       </c>
       <c r="I21" t="n">
-        <v>713.64</v>
+        <v>316.01</v>
       </c>
       <c r="J21" t="n">
-        <v>785</v>
+        <v>347.61</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>FL1288</t>
+          <t>FL7598</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1258,35 +1258,35 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>premium_economy</t>
+          <t>business</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" t="n">
-        <v>4051.78</v>
+        <v>8200.82</v>
       </c>
       <c r="F22" t="n">
-        <v>340.15</v>
+        <v>170.34</v>
       </c>
       <c r="G22" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H22" t="n">
-        <v>4791.93</v>
+        <v>8871.16</v>
       </c>
       <c r="I22" t="n">
-        <v>684.5599999999999</v>
+        <v>1478.53</v>
       </c>
       <c r="J22" t="n">
-        <v>239.6</v>
+        <v>443.56</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FL4177</t>
+          <t>FL2625</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1296,73 +1296,73 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>premium_economy</t>
+          <t>business</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E23" t="n">
-        <v>7572.57</v>
+        <v>1121.22</v>
       </c>
       <c r="F23" t="n">
-        <v>562.52</v>
+        <v>341.88</v>
       </c>
       <c r="G23" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="H23" t="n">
-        <v>9335.09</v>
+        <v>2063.1</v>
       </c>
       <c r="I23" t="n">
-        <v>848.64</v>
+        <v>343.85</v>
       </c>
       <c r="J23" t="n">
-        <v>466.75</v>
+        <v>103.16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FL9323</t>
+          <t>FL3865</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>website</t>
+          <t>app</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>premium_economy</t>
+          <t>economy</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E24" t="n">
-        <v>12254.96</v>
+        <v>8711.639999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>737.1900000000001</v>
+        <v>1689.24</v>
       </c>
       <c r="G24" t="n">
-        <v>1250</v>
+        <v>2850</v>
       </c>
       <c r="H24" t="n">
-        <v>14242.15</v>
+        <v>13250.88</v>
       </c>
       <c r="I24" t="n">
-        <v>712.11</v>
+        <v>378.6</v>
       </c>
       <c r="J24" t="n">
-        <v>712.11</v>
+        <v>662.54</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FL2825</t>
+          <t>FL8222</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1372,67 +1372,67 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>premium_economy</t>
+          <t>economy</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E25" t="n">
-        <v>2726.73</v>
+        <v>5271.08</v>
       </c>
       <c r="F25" t="n">
-        <v>128.75</v>
+        <v>1676.67</v>
       </c>
       <c r="G25" t="n">
-        <v>350</v>
+        <v>2150</v>
       </c>
       <c r="H25" t="n">
-        <v>3205.48</v>
+        <v>9097.75</v>
       </c>
       <c r="I25" t="n">
-        <v>641.1</v>
+        <v>252.72</v>
       </c>
       <c r="J25" t="n">
-        <v>160.27</v>
+        <v>454.89</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FL1288</t>
+          <t>FL6679</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>travel_agent</t>
+          <t>app</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>premium_economy</t>
+          <t>economy</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E26" t="n">
-        <v>3357.18</v>
+        <v>3035.06</v>
       </c>
       <c r="F26" t="n">
-        <v>138.24</v>
+        <v>999.75</v>
       </c>
       <c r="G26" t="n">
-        <v>200</v>
+        <v>1650</v>
       </c>
       <c r="H26" t="n">
-        <v>3695.42</v>
+        <v>5684.81</v>
       </c>
       <c r="I26" t="n">
-        <v>923.86</v>
+        <v>270.71</v>
       </c>
       <c r="J26" t="n">
-        <v>184.77</v>
+        <v>284.24</v>
       </c>
     </row>
   </sheetData>

--- a/silver/excel/int_revenue_metrics.xlsx
+++ b/silver/excel/int_revenue_metrics.xlsx
@@ -488,39 +488,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FL8222</t>
+          <t>FL1013</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>website</t>
+          <t>app</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>premium_economy</t>
+          <t>business</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>1684.31</v>
+        <v>5501.03</v>
       </c>
       <c r="F2" t="n">
-        <v>412.16</v>
+        <v>366.46</v>
       </c>
       <c r="G2" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="H2" t="n">
-        <v>2846.47</v>
+        <v>6717.49</v>
       </c>
       <c r="I2" t="n">
-        <v>316.27</v>
+        <v>839.6900000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>142.32</v>
+        <v>335.87</v>
       </c>
     </row>
     <row r="3">
@@ -531,40 +531,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>travel_agent</t>
+          <t>app</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>premium_economy</t>
+          <t>economy</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="E3" t="n">
-        <v>7398.05</v>
+        <v>47213.44</v>
       </c>
       <c r="F3" t="n">
-        <v>784.88</v>
+        <v>5241.3</v>
       </c>
       <c r="G3" t="n">
-        <v>1100</v>
+        <v>7300</v>
       </c>
       <c r="H3" t="n">
-        <v>9282.93</v>
+        <v>59754.74</v>
       </c>
       <c r="I3" t="n">
-        <v>714.0700000000001</v>
+        <v>563.72</v>
       </c>
       <c r="J3" t="n">
-        <v>464.15</v>
+        <v>2987.74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FL8121</t>
+          <t>FL1013</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -578,69 +578,69 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>1077.11</v>
+        <v>3116.38</v>
       </c>
       <c r="F4" t="n">
-        <v>420.55</v>
+        <v>362.24</v>
       </c>
       <c r="G4" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="H4" t="n">
-        <v>2197.66</v>
+        <v>3928.62</v>
       </c>
       <c r="I4" t="n">
-        <v>313.95</v>
+        <v>654.77</v>
       </c>
       <c r="J4" t="n">
-        <v>109.88</v>
+        <v>196.43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FL1541</t>
+          <t>FL1013</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>app</t>
+          <t>travel_agent</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>premium_economy</t>
+          <t>business</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>6876.5</v>
+        <v>6820.37</v>
       </c>
       <c r="F5" t="n">
-        <v>399.17</v>
+        <v>418.1</v>
       </c>
       <c r="G5" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="H5" t="n">
-        <v>7625.67</v>
+        <v>7738.47</v>
       </c>
       <c r="I5" t="n">
-        <v>1270.95</v>
+        <v>773.85</v>
       </c>
       <c r="J5" t="n">
-        <v>381.28</v>
+        <v>386.92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FL8464</t>
+          <t>FL1013</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -654,69 +654,69 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="E6" t="n">
-        <v>5370.77</v>
+        <v>40852.81</v>
       </c>
       <c r="F6" t="n">
-        <v>1100.34</v>
+        <v>4767.7</v>
       </c>
       <c r="G6" t="n">
-        <v>2250</v>
+        <v>6650</v>
       </c>
       <c r="H6" t="n">
-        <v>8721.110000000001</v>
+        <v>52270.51</v>
       </c>
       <c r="I6" t="n">
-        <v>335.43</v>
+        <v>568.16</v>
       </c>
       <c r="J6" t="n">
-        <v>436.06</v>
+        <v>2613.53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FL7466</t>
+          <t>FL1013</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>website</t>
+          <t>travel_agent</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>economy</t>
+          <t>premium_economy</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>6301.85</v>
+        <v>14391.32</v>
       </c>
       <c r="F7" t="n">
-        <v>1072.56</v>
+        <v>1241.59</v>
       </c>
       <c r="G7" t="n">
-        <v>2350</v>
+        <v>2050</v>
       </c>
       <c r="H7" t="n">
-        <v>9724.41</v>
+        <v>17682.91</v>
       </c>
       <c r="I7" t="n">
-        <v>313.69</v>
+        <v>707.3200000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>486.22</v>
+        <v>884.15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FL2900</t>
+          <t>FL1013</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -726,73 +726,73 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>premium_economy</t>
+          <t>business</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>1379.34</v>
+        <v>4652.36</v>
       </c>
       <c r="F8" t="n">
-        <v>346.88</v>
+        <v>290.12</v>
       </c>
       <c r="G8" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="H8" t="n">
-        <v>2076.22</v>
+        <v>5742.48</v>
       </c>
       <c r="I8" t="n">
-        <v>259.53</v>
+        <v>820.35</v>
       </c>
       <c r="J8" t="n">
-        <v>103.81</v>
+        <v>287.12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FL1740</t>
+          <t>FL1013</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>app</t>
+          <t>website</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>premium_economy</t>
+          <t>economy</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="E9" t="n">
-        <v>1215.49</v>
+        <v>37283.53</v>
       </c>
       <c r="F9" t="n">
-        <v>396.16</v>
+        <v>3738.5</v>
       </c>
       <c r="G9" t="n">
-        <v>600</v>
+        <v>6750</v>
       </c>
       <c r="H9" t="n">
-        <v>2211.65</v>
+        <v>47772.03</v>
       </c>
       <c r="I9" t="n">
-        <v>368.61</v>
+        <v>562.02</v>
       </c>
       <c r="J9" t="n">
-        <v>110.58</v>
+        <v>2388.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FL2948</t>
+          <t>FL1013</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -802,35 +802,35 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>premium_economy</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>1414.76</v>
+        <v>13937.32</v>
       </c>
       <c r="F10" t="n">
-        <v>267.26</v>
+        <v>1171.61</v>
       </c>
       <c r="G10" t="n">
-        <v>150</v>
+        <v>2150</v>
       </c>
       <c r="H10" t="n">
-        <v>1832.02</v>
+        <v>17258.93</v>
       </c>
       <c r="I10" t="n">
-        <v>366.4</v>
+        <v>690.36</v>
       </c>
       <c r="J10" t="n">
-        <v>91.59999999999999</v>
+        <v>862.95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FL5986</t>
+          <t>FL1020</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -844,188 +844,188 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>1158.83</v>
+        <v>6444.27</v>
       </c>
       <c r="F11" t="n">
-        <v>147.64</v>
+        <v>499.96</v>
       </c>
       <c r="G11" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="H11" t="n">
-        <v>1806.47</v>
+        <v>7594.23</v>
       </c>
       <c r="I11" t="n">
-        <v>361.29</v>
+        <v>759.42</v>
       </c>
       <c r="J11" t="n">
-        <v>90.31999999999999</v>
+        <v>379.71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FL3066</t>
+          <t>FL1020</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>travel_agent</t>
+          <t>app</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>economy</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="E12" t="n">
-        <v>1263.64</v>
+        <v>29862.23</v>
       </c>
       <c r="F12" t="n">
-        <v>184.66</v>
+        <v>3511.68</v>
       </c>
       <c r="G12" t="n">
-        <v>400</v>
+        <v>4400</v>
       </c>
       <c r="H12" t="n">
-        <v>1848.3</v>
+        <v>37773.91</v>
       </c>
       <c r="I12" t="n">
-        <v>369.66</v>
+        <v>555.5</v>
       </c>
       <c r="J12" t="n">
-        <v>92.42</v>
+        <v>1888.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>FL2625</t>
+          <t>FL1020</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>website</t>
+          <t>app</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>economy</t>
+          <t>premium_economy</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>3499.14</v>
+        <v>4683.6</v>
       </c>
       <c r="F13" t="n">
-        <v>1302.44</v>
+        <v>213.85</v>
       </c>
       <c r="G13" t="n">
-        <v>2050</v>
+        <v>700</v>
       </c>
       <c r="H13" t="n">
-        <v>6851.58</v>
+        <v>5597.45</v>
       </c>
       <c r="I13" t="n">
-        <v>244.7</v>
+        <v>699.6799999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>342.58</v>
+        <v>279.87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FL4736</t>
+          <t>FL1020</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>app</t>
+          <t>travel_agent</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>economy</t>
+          <t>business</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>5610.04</v>
+        <v>4512.76</v>
       </c>
       <c r="F14" t="n">
-        <v>2143.88</v>
+        <v>442.38</v>
       </c>
       <c r="G14" t="n">
-        <v>3550</v>
+        <v>300</v>
       </c>
       <c r="H14" t="n">
-        <v>11303.92</v>
+        <v>5255.14</v>
       </c>
       <c r="I14" t="n">
-        <v>251.2</v>
+        <v>750.73</v>
       </c>
       <c r="J14" t="n">
-        <v>565.2</v>
+        <v>262.76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>FL9612</t>
+          <t>FL1020</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>website</t>
+          <t>travel_agent</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>premium_economy</t>
+          <t>economy</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="E15" t="n">
-        <v>7493.26</v>
+        <v>24292.52</v>
       </c>
       <c r="F15" t="n">
-        <v>856.84</v>
+        <v>2585.68</v>
       </c>
       <c r="G15" t="n">
-        <v>1250</v>
+        <v>3850</v>
       </c>
       <c r="H15" t="n">
-        <v>9600.1</v>
+        <v>30728.2</v>
       </c>
       <c r="I15" t="n">
-        <v>685.72</v>
+        <v>558.6900000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>480.01</v>
+        <v>1536.41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FL6575</t>
+          <t>FL1020</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>website</t>
+          <t>travel_agent</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1034,74 +1034,74 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E16" t="n">
-        <v>1206.49</v>
+        <v>7149.17</v>
       </c>
       <c r="F16" t="n">
-        <v>234.59</v>
+        <v>682.17</v>
       </c>
       <c r="G16" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="H16" t="n">
-        <v>1891.08</v>
+        <v>8681.34</v>
       </c>
       <c r="I16" t="n">
-        <v>315.18</v>
+        <v>667.8</v>
       </c>
       <c r="J16" t="n">
-        <v>94.55</v>
+        <v>434.07</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FL3756</t>
+          <t>FL1020</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>app</t>
+          <t>website</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>economy</t>
+          <t>business</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>4701.21</v>
+        <v>5468.44</v>
       </c>
       <c r="F17" t="n">
-        <v>2036.3</v>
+        <v>384.19</v>
       </c>
       <c r="G17" t="n">
-        <v>2550</v>
+        <v>950</v>
       </c>
       <c r="H17" t="n">
-        <v>9287.51</v>
+        <v>6802.63</v>
       </c>
       <c r="I17" t="n">
-        <v>244.41</v>
+        <v>850.33</v>
       </c>
       <c r="J17" t="n">
-        <v>464.38</v>
+        <v>340.13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>FL6970</t>
+          <t>FL1020</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>travel_agent</t>
+          <t>website</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1110,31 +1110,31 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E18" t="n">
-        <v>35667.53</v>
+        <v>24377.77</v>
       </c>
       <c r="F18" t="n">
-        <v>2434.26</v>
+        <v>3056.29</v>
       </c>
       <c r="G18" t="n">
-        <v>2300</v>
+        <v>4950</v>
       </c>
       <c r="H18" t="n">
-        <v>40401.79</v>
+        <v>32384.06</v>
       </c>
       <c r="I18" t="n">
-        <v>1035.94</v>
+        <v>578.29</v>
       </c>
       <c r="J18" t="n">
-        <v>2020.09</v>
+        <v>1619.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>FL5544</t>
+          <t>FL1020</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1144,40 +1144,40 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>economy</t>
+          <t>premium_economy</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>8202.77</v>
+        <v>3739.54</v>
       </c>
       <c r="F19" t="n">
-        <v>1732.45</v>
+        <v>452.08</v>
       </c>
       <c r="G19" t="n">
-        <v>2600</v>
+        <v>650</v>
       </c>
       <c r="H19" t="n">
-        <v>12535.22</v>
+        <v>4841.62</v>
       </c>
       <c r="I19" t="n">
-        <v>379.86</v>
+        <v>691.66</v>
       </c>
       <c r="J19" t="n">
-        <v>626.76</v>
+        <v>242.08</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>FL1573</t>
+          <t>FL1023</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>website</t>
+          <t>app</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1186,36 +1186,36 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>1707.25</v>
+        <v>762.79</v>
       </c>
       <c r="F20" t="n">
-        <v>177.01</v>
+        <v>160.32</v>
       </c>
       <c r="G20" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="H20" t="n">
-        <v>2284.26</v>
+        <v>973.11</v>
       </c>
       <c r="I20" t="n">
-        <v>456.85</v>
+        <v>324.37</v>
       </c>
       <c r="J20" t="n">
-        <v>114.21</v>
+        <v>48.66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>FL1524</t>
+          <t>FL1023</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>travel_agent</t>
+          <t>app</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1224,74 +1224,74 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E21" t="n">
-        <v>4540.28</v>
+        <v>5774.24</v>
       </c>
       <c r="F21" t="n">
-        <v>1111.92</v>
+        <v>1701.91</v>
       </c>
       <c r="G21" t="n">
-        <v>1300</v>
+        <v>2650</v>
       </c>
       <c r="H21" t="n">
-        <v>6952.2</v>
+        <v>10126.15</v>
       </c>
       <c r="I21" t="n">
-        <v>316.01</v>
+        <v>289.32</v>
       </c>
       <c r="J21" t="n">
-        <v>347.61</v>
+        <v>506.31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>FL7598</t>
+          <t>FL1023</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>website</t>
+          <t>app</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>premium_economy</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>8200.82</v>
+        <v>1430.57</v>
       </c>
       <c r="F22" t="n">
-        <v>170.34</v>
+        <v>357</v>
       </c>
       <c r="G22" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H22" t="n">
-        <v>8871.16</v>
+        <v>2387.57</v>
       </c>
       <c r="I22" t="n">
-        <v>1478.53</v>
+        <v>341.08</v>
       </c>
       <c r="J22" t="n">
-        <v>443.56</v>
+        <v>119.38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FL2625</t>
+          <t>FL1023</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>app</t>
+          <t>travel_agent</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1300,36 +1300,36 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" t="n">
-        <v>1121.22</v>
+        <v>1156.93</v>
       </c>
       <c r="F23" t="n">
-        <v>341.88</v>
+        <v>255.81</v>
       </c>
       <c r="G23" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="H23" t="n">
-        <v>2063.1</v>
+        <v>1762.74</v>
       </c>
       <c r="I23" t="n">
-        <v>343.85</v>
+        <v>352.55</v>
       </c>
       <c r="J23" t="n">
-        <v>103.16</v>
+        <v>88.14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FL3865</t>
+          <t>FL1023</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>app</t>
+          <t>travel_agent</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1338,101 +1338,101 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" t="n">
-        <v>8711.639999999999</v>
+        <v>5410.87</v>
       </c>
       <c r="F24" t="n">
-        <v>1689.24</v>
+        <v>1671.94</v>
       </c>
       <c r="G24" t="n">
-        <v>2850</v>
+        <v>2300</v>
       </c>
       <c r="H24" t="n">
-        <v>13250.88</v>
+        <v>9382.809999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>378.6</v>
+        <v>275.97</v>
       </c>
       <c r="J24" t="n">
-        <v>662.54</v>
+        <v>469.14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FL8222</t>
+          <t>FL1023</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>website</t>
+          <t>travel_agent</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>economy</t>
+          <t>premium_economy</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>5271.08</v>
+        <v>1366.89</v>
       </c>
       <c r="F25" t="n">
-        <v>1676.67</v>
+        <v>303.67</v>
       </c>
       <c r="G25" t="n">
-        <v>2150</v>
+        <v>800</v>
       </c>
       <c r="H25" t="n">
-        <v>9097.75</v>
+        <v>2470.56</v>
       </c>
       <c r="I25" t="n">
-        <v>252.72</v>
+        <v>352.94</v>
       </c>
       <c r="J25" t="n">
-        <v>454.89</v>
+        <v>123.53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FL6679</t>
+          <t>FL1023</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>app</t>
+          <t>website</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>economy</t>
+          <t>business</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>3035.06</v>
+        <v>264.61</v>
       </c>
       <c r="F26" t="n">
-        <v>999.75</v>
+        <v>4.94</v>
       </c>
       <c r="G26" t="n">
-        <v>1650</v>
+        <v>100</v>
       </c>
       <c r="H26" t="n">
-        <v>5684.81</v>
+        <v>369.55</v>
       </c>
       <c r="I26" t="n">
-        <v>270.71</v>
+        <v>369.55</v>
       </c>
       <c r="J26" t="n">
-        <v>284.24</v>
+        <v>18.48</v>
       </c>
     </row>
   </sheetData>
